--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T09:19:03+00:00</t>
+    <t>2022-03-04T09:46:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>concept</t>
   </si>
   <si>
-    <t>is-a</t>
+    <t>descendent-of</t>
   </si>
   <si>
     <t>424122007</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T09:46:47+00:00</t>
+    <t>2022-03-04T10:02:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ECOG Performance Status SNOMED</t>
+    <t>ValueSet ECOG Performance Status SNOMED</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T10:02:11+00:00</t>
+    <t>2022-03-07T15:59:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T15:59:03+00:00</t>
+    <t>2022-03-07T16:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T16:28:10+00:00</t>
+    <t>2022-03-17T14:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T14:27:38+00:00</t>
+    <t>2022-03-17T16:23:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T16:23:37+00:00</t>
+    <t>2022-03-17T16:24:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T16:24:03+00:00</t>
+    <t>2022-03-18T08:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T08:55:58+00:00</t>
+    <t>2022-03-18T08:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T08:59:17+00:00</t>
+    <t>2022-03-18T09:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T09:03:10+00:00</t>
+    <t>2022-03-18T11:13:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:13:47+00:00</t>
+    <t>2022-03-18T11:20:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:20:11+00:00</t>
+    <t>2022-03-18T11:29:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:29:02+00:00</t>
+    <t>2022-03-18T11:37:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:37:05+00:00</t>
+    <t>2022-03-18T11:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:44:19+00:00</t>
+    <t>2022-03-18T11:45:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:45:27+00:00</t>
+    <t>2022-03-28T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
   <si>
     <t>Description</t>
@@ -245,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -345,15 +351,15 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -361,6 +367,14 @@
       </c>
       <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -385,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -393,29 +407,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:16:24+00:00</t>
+    <t>2022-03-29T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T09:13:58+00:00</t>
+    <t>2022-03-30T09:29:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:29:59+00:00</t>
+    <t>2022-03-30T09:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:36:20+00:00</t>
+    <t>2022-03-30T09:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/vs-ecog-performance-status-snomed</t>
+    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/ecog-performance-status-snomed</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:37:53+00:00</t>
+    <t>2022-03-31T12:02:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T12:02:56+00:00</t>
+    <t>2022-04-20T16:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:54:19+00:00</t>
+    <t>2022-04-21T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T07:12:34+00:00</t>
+    <t>2022-04-22T12:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:41:11+00:00</t>
+    <t>2022-04-22T12:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:50:48+00:00</t>
+    <t>2022-04-22T14:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T14:55:40+00:00</t>
+    <t>2022-05-04T13:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:51:33+00:00</t>
+    <t>2022-05-23T11:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:41:38+00:00</t>
+    <t>2022-05-23T13:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:12:45+00:00</t>
+    <t>2022-05-24T10:44:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:44:26+00:00</t>
+    <t>2022-07-14T07:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:12:54+00:00</t>
+    <t>2022-07-25T13:12:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:12:11+00:00</t>
+    <t>2022-07-25T14:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:41:10+00:00</t>
+    <t>2022-08-01T09:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:26:13+00:00</t>
+    <t>2022-08-08T13:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:24:36+00:00</t>
+    <t>2022-08-09T12:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T12:36:42+00:00</t>
+    <t>2023-03-22T15:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-ecog-performance-status-snomed.xlsx
+++ b/ValueSet-vs-ecog-performance-status-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
